--- a/strike_data/Sensex.xlsx
+++ b/strike_data/Sensex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\options\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881EAD1F-3D7D-4A33-985A-552D7EADD52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BB8B56-090B-4E83-8A50-020324C9D9B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{CFBB8F4F-5B1D-4FB1-AF08-4495016B3ECE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="213">
   <si>
     <t>OPTIDX</t>
   </si>
@@ -57,16 +57,621 @@
     <t>symbol</t>
   </si>
   <si>
-    <t>SENSEX - Jan2026 - 90700 - PE</t>
+    <t>SENSEX-Jan2026-90700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-90500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-79100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-89300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-87200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-85100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-81400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-83000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-91600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-88100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-82100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-84400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-86700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-80700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-92100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-78000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-77000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-93400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75600-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-76400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75400-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75300-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75200-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75500-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-75000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-74900-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94800-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94700-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-95000-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-95100-PE</t>
+  </si>
+  <si>
+    <t>SENSEX-Jan2026-94900-PE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/yy"/>
-    <numFmt numFmtId="165" formatCode="mmmyyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -130,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -151,12 +756,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,21 +1070,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12448A25-0694-49D5-917E-D13A1545589C}">
-  <dimension ref="A1:N407"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="9.140625" style="7"/>
     <col min="7" max="7" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -507,9 +1105,8 @@
       <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1159880</v>
       </c>
@@ -528,12 +1125,8 @@
       <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="8"/>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1159886</v>
       </c>
@@ -550,14 +1143,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="8"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1159887</v>
       </c>
@@ -574,14 +1163,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1159888</v>
       </c>
@@ -598,14 +1183,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1159889</v>
       </c>
@@ -622,14 +1203,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="8"/>
-      <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1159890</v>
       </c>
@@ -646,14 +1223,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="J7" s="8"/>
-      <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1159892</v>
       </c>
@@ -670,14 +1243,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="J8" s="8"/>
-      <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1159893</v>
       </c>
@@ -694,14 +1263,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1159894</v>
       </c>
@@ -718,14 +1283,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1159896</v>
       </c>
@@ -742,14 +1303,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="J11" s="8"/>
-      <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1159897</v>
       </c>
@@ -766,14 +1323,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1159898</v>
       </c>
@@ -790,14 +1343,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="J13" s="8"/>
-      <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1159900</v>
       </c>
@@ -814,14 +1363,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="J14" s="8"/>
-      <c r="L14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1159901</v>
       </c>
@@ -838,14 +1383,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="J15" s="8"/>
-      <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1159902</v>
       </c>
@@ -862,14 +1403,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="J16" s="8"/>
-      <c r="L16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1159903</v>
       </c>
@@ -886,14 +1423,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="J17" s="8"/>
-      <c r="L17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1159904</v>
       </c>
@@ -910,14 +1443,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="J18" s="8"/>
-      <c r="L18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1159905</v>
       </c>
@@ -934,14 +1463,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="8"/>
-      <c r="L19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1159906</v>
       </c>
@@ -958,14 +1483,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="J20" s="8"/>
-      <c r="L20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1159907</v>
       </c>
@@ -982,14 +1503,10 @@
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="J21" s="8"/>
-      <c r="L21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1159912</v>
       </c>
@@ -1006,14 +1523,10 @@
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="J22" s="8"/>
-      <c r="L22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1159913</v>
       </c>
@@ -1030,14 +1543,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="J23" s="8"/>
-      <c r="L23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1159914</v>
       </c>
@@ -1054,14 +1563,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="J24" s="8"/>
-      <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1159916</v>
       </c>
@@ -1078,14 +1583,10 @@
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="J25" s="8"/>
-      <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1159917</v>
       </c>
@@ -1102,14 +1603,10 @@
         <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="J26" s="8"/>
-      <c r="L26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1159919</v>
       </c>
@@ -1126,14 +1623,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="J27" s="8"/>
-      <c r="L27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1159922</v>
       </c>
@@ -1150,14 +1643,10 @@
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="J28" s="8"/>
-      <c r="L28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1159923</v>
       </c>
@@ -1174,14 +1663,10 @@
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="J29" s="8"/>
-      <c r="L29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1159925</v>
       </c>
@@ -1198,14 +1683,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="J30" s="8"/>
-      <c r="L30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1159927</v>
       </c>
@@ -1222,14 +1703,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="J31" s="8"/>
-      <c r="L31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1159928</v>
       </c>
@@ -1246,14 +1723,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="J32" s="8"/>
-      <c r="L32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1159931</v>
       </c>
@@ -1270,14 +1743,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="J33" s="8"/>
-      <c r="L33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1159932</v>
       </c>
@@ -1294,14 +1763,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="J34" s="8"/>
-      <c r="L34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1159936</v>
       </c>
@@ -1318,14 +1783,10 @@
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="J35" s="8"/>
-      <c r="L35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1159937</v>
       </c>
@@ -1342,14 +1803,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="J36" s="8"/>
-      <c r="L36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1159940</v>
       </c>
@@ -1366,14 +1823,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="J37" s="8"/>
-      <c r="L37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1159942</v>
       </c>
@@ -1390,14 +1843,10 @@
         <v>2</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="J38" s="8"/>
-      <c r="L38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1159943</v>
       </c>
@@ -1414,14 +1863,10 @@
         <v>2</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="J39" s="8"/>
-      <c r="L39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1159944</v>
       </c>
@@ -1438,14 +1883,10 @@
         <v>2</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="J40" s="8"/>
-      <c r="L40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1159945</v>
       </c>
@@ -1462,14 +1903,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="J41" s="8"/>
-      <c r="L41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1159946</v>
       </c>
@@ -1486,14 +1923,10 @@
         <v>2</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="J42" s="8"/>
-      <c r="L42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1159947</v>
       </c>
@@ -1510,14 +1943,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="J43" s="8"/>
-      <c r="L43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1159948</v>
       </c>
@@ -1534,14 +1963,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="J44" s="8"/>
-      <c r="L44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1159949</v>
       </c>
@@ -1558,14 +1983,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="J45" s="8"/>
-      <c r="L45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1159951</v>
       </c>
@@ -1582,14 +2003,10 @@
         <v>2</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="J46" s="8"/>
-      <c r="L46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1159952</v>
       </c>
@@ -1606,14 +2023,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="J47" s="8"/>
-      <c r="L47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1159954</v>
       </c>
@@ -1630,14 +2043,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="J48" s="8"/>
-      <c r="L48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1159956</v>
       </c>
@@ -1654,14 +2063,10 @@
         <v>2</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="J49" s="8"/>
-      <c r="L49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1159958</v>
       </c>
@@ -1678,14 +2083,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="J50" s="8"/>
-      <c r="L50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1159960</v>
       </c>
@@ -1702,14 +2103,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="J51" s="8"/>
-      <c r="L51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1159962</v>
       </c>
@@ -1726,14 +2123,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="J52" s="8"/>
-      <c r="L52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1159963</v>
       </c>
@@ -1750,14 +2143,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="J53" s="8"/>
-      <c r="L53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1159964</v>
       </c>
@@ -1774,14 +2163,10 @@
         <v>2</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="J54" s="8"/>
-      <c r="L54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1159966</v>
       </c>
@@ -1798,14 +2183,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="J55" s="8"/>
-      <c r="L55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1159967</v>
       </c>
@@ -1822,14 +2203,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="J56" s="8"/>
-      <c r="L56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1159970</v>
       </c>
@@ -1846,14 +2223,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="J57" s="8"/>
-      <c r="L57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1159972</v>
       </c>
@@ -1870,14 +2243,10 @@
         <v>2</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="J58" s="8"/>
-      <c r="L58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1159973</v>
       </c>
@@ -1894,14 +2263,10 @@
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="J59" s="8"/>
-      <c r="L59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1159976</v>
       </c>
@@ -1918,14 +2283,10 @@
         <v>2</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="J60" s="8"/>
-      <c r="L60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1159977</v>
       </c>
@@ -1942,14 +2303,10 @@
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="J61" s="8"/>
-      <c r="L61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1159979</v>
       </c>
@@ -1966,14 +2323,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="J62" s="8"/>
-      <c r="L62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1159980</v>
       </c>
@@ -1990,14 +2343,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="J63" s="8"/>
-      <c r="L63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1159982</v>
       </c>
@@ -2014,14 +2363,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="J64" s="8"/>
-      <c r="L64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1159983</v>
       </c>
@@ -2038,14 +2383,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="J65" s="8"/>
-      <c r="L65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1159984</v>
       </c>
@@ -2062,14 +2403,10 @@
         <v>2</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="J66" s="8"/>
-      <c r="L66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1159985</v>
       </c>
@@ -2086,14 +2423,10 @@
         <v>2</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="1"/>
-      <c r="J67" s="8"/>
-      <c r="L67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1159988</v>
       </c>
@@ -2110,14 +2443,10 @@
         <v>2</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="1"/>
-      <c r="J68" s="8"/>
-      <c r="L68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1159991</v>
       </c>
@@ -2134,14 +2463,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="J69" s="8"/>
-      <c r="L69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1159994</v>
       </c>
@@ -2158,14 +2483,10 @@
         <v>2</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="J70" s="8"/>
-      <c r="L70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1159995</v>
       </c>
@@ -2182,14 +2503,10 @@
         <v>2</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="J71" s="8"/>
-      <c r="L71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1159996</v>
       </c>
@@ -2206,14 +2523,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="J72" s="8"/>
-      <c r="L72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1159997</v>
       </c>
@@ -2230,14 +2543,10 @@
         <v>2</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="1"/>
-      <c r="J73" s="8"/>
-      <c r="L73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1160002</v>
       </c>
@@ -2254,14 +2563,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="J74" s="8"/>
-      <c r="L74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1160003</v>
       </c>
@@ -2278,14 +2583,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="J75" s="8"/>
-      <c r="L75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1160006</v>
       </c>
@@ -2302,14 +2603,10 @@
         <v>2</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="1"/>
-      <c r="J76" s="8"/>
-      <c r="L76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1160010</v>
       </c>
@@ -2326,14 +2623,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="1"/>
-      <c r="J77" s="8"/>
-      <c r="L77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1160011</v>
       </c>
@@ -2350,14 +2643,10 @@
         <v>2</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="J78" s="8"/>
-      <c r="L78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1160012</v>
       </c>
@@ -2374,14 +2663,10 @@
         <v>2</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="J79" s="8"/>
-      <c r="L79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1160014</v>
       </c>
@@ -2398,14 +2683,10 @@
         <v>2</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="J80" s="8"/>
-      <c r="L80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1160015</v>
       </c>
@@ -2422,14 +2703,10 @@
         <v>1</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="1"/>
-      <c r="J81" s="8"/>
-      <c r="L81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1160016</v>
       </c>
@@ -2446,14 +2723,10 @@
         <v>1</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="1"/>
-      <c r="J82" s="8"/>
-      <c r="L82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1160017</v>
       </c>
@@ -2470,14 +2743,10 @@
         <v>1</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="1"/>
-      <c r="J83" s="8"/>
-      <c r="L83" s="1"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1160018</v>
       </c>
@@ -2494,14 +2763,10 @@
         <v>2</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="J84" s="8"/>
-      <c r="L84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1160020</v>
       </c>
@@ -2518,14 +2783,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="1"/>
-      <c r="J85" s="8"/>
-      <c r="L85" s="1"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1160021</v>
       </c>
@@ -2542,14 +2803,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="1"/>
-      <c r="J86" s="8"/>
-      <c r="L86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1160022</v>
       </c>
@@ -2566,14 +2823,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="1"/>
-      <c r="J87" s="8"/>
-      <c r="L87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1160023</v>
       </c>
@@ -2590,14 +2843,10 @@
         <v>2</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="1"/>
-      <c r="J88" s="8"/>
-      <c r="L88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1160024</v>
       </c>
@@ -2614,14 +2863,10 @@
         <v>2</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="1"/>
-      <c r="J89" s="8"/>
-      <c r="L89" s="1"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1160027</v>
       </c>
@@ -2638,14 +2883,10 @@
         <v>2</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="1"/>
-      <c r="J90" s="8"/>
-      <c r="L90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1160031</v>
       </c>
@@ -2662,14 +2903,10 @@
         <v>2</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="J91" s="8"/>
-      <c r="L91" s="1"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1160032</v>
       </c>
@@ -2686,14 +2923,10 @@
         <v>2</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="J92" s="8"/>
-      <c r="L92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1160034</v>
       </c>
@@ -2710,14 +2943,10 @@
         <v>2</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="1"/>
-      <c r="J93" s="8"/>
-      <c r="L93" s="1"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1160036</v>
       </c>
@@ -2734,14 +2963,10 @@
         <v>2</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="1"/>
-      <c r="J94" s="8"/>
-      <c r="L94" s="1"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1160037</v>
       </c>
@@ -2758,14 +2983,10 @@
         <v>2</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="1"/>
-      <c r="J95" s="8"/>
-      <c r="L95" s="1"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1160040</v>
       </c>
@@ -2782,14 +3003,10 @@
         <v>2</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="1"/>
-      <c r="J96" s="8"/>
-      <c r="L96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1160041</v>
       </c>
@@ -2806,14 +3023,10 @@
         <v>2</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="J97" s="8"/>
-      <c r="L97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1160042</v>
       </c>
@@ -2830,14 +3043,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="J98" s="8"/>
-      <c r="L98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1160047</v>
       </c>
@@ -2854,14 +3063,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="J99" s="8"/>
-      <c r="L99" s="1"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1160048</v>
       </c>
@@ -2878,14 +3083,10 @@
         <v>2</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="1"/>
-      <c r="J100" s="8"/>
-      <c r="L100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1160050</v>
       </c>
@@ -2902,14 +3103,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="1"/>
-      <c r="J101" s="8"/>
-      <c r="L101" s="1"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1160051</v>
       </c>
@@ -2926,14 +3123,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="J102" s="8"/>
-      <c r="L102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1160052</v>
       </c>
@@ -2950,14 +3143,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="1"/>
-      <c r="J103" s="8"/>
-      <c r="L103" s="1"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1160053</v>
       </c>
@@ -2974,14 +3163,10 @@
         <v>2</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="1"/>
-      <c r="J104" s="8"/>
-      <c r="L104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1160055</v>
       </c>
@@ -2998,14 +3183,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" s="1"/>
-      <c r="J105" s="8"/>
-      <c r="L105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1160057</v>
       </c>
@@ -3022,14 +3203,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="1"/>
-      <c r="J106" s="8"/>
-      <c r="L106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1160059</v>
       </c>
@@ -3046,14 +3223,10 @@
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="1"/>
-      <c r="J107" s="8"/>
-      <c r="L107" s="1"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1160061</v>
       </c>
@@ -3070,14 +3243,10 @@
         <v>2</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="1"/>
-      <c r="J108" s="8"/>
-      <c r="L108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1160062</v>
       </c>
@@ -3094,14 +3263,10 @@
         <v>1</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="1"/>
-      <c r="J109" s="8"/>
-      <c r="L109" s="1"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1160066</v>
       </c>
@@ -3118,14 +3283,10 @@
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="1"/>
-      <c r="J110" s="8"/>
-      <c r="L110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1160069</v>
       </c>
@@ -3142,14 +3303,10 @@
         <v>2</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="1"/>
-      <c r="J111" s="8"/>
-      <c r="L111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1160070</v>
       </c>
@@ -3166,14 +3323,10 @@
         <v>2</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="1"/>
-      <c r="J112" s="8"/>
-      <c r="L112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1160071</v>
       </c>
@@ -3190,14 +3343,10 @@
         <v>2</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="1"/>
-      <c r="J113" s="8"/>
-      <c r="L113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1160074</v>
       </c>
@@ -3214,14 +3363,10 @@
         <v>2</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="1"/>
-      <c r="J114" s="8"/>
-      <c r="L114" s="1"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1160077</v>
       </c>
@@ -3238,14 +3383,10 @@
         <v>2</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="1"/>
-      <c r="J115" s="8"/>
-      <c r="L115" s="1"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1160079</v>
       </c>
@@ -3262,14 +3403,10 @@
         <v>1</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="1"/>
-      <c r="J116" s="8"/>
-      <c r="L116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1160083</v>
       </c>
@@ -3286,14 +3423,10 @@
         <v>2</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="1"/>
-      <c r="J117" s="8"/>
-      <c r="L117" s="1"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1160084</v>
       </c>
@@ -3310,14 +3443,10 @@
         <v>1</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="1"/>
-      <c r="J118" s="8"/>
-      <c r="L118" s="1"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1160086</v>
       </c>
@@ -3334,14 +3463,10 @@
         <v>1</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="1"/>
-      <c r="J119" s="8"/>
-      <c r="L119" s="1"/>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1160087</v>
       </c>
@@ -3358,14 +3483,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="1"/>
-      <c r="J120" s="8"/>
-      <c r="L120" s="1"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1160088</v>
       </c>
@@ -3382,14 +3503,10 @@
         <v>1</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="1"/>
-      <c r="J121" s="8"/>
-      <c r="L121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1160089</v>
       </c>
@@ -3406,14 +3523,10 @@
         <v>2</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="1"/>
-      <c r="J122" s="8"/>
-      <c r="L122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1160090</v>
       </c>
@@ -3430,14 +3543,10 @@
         <v>2</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="1"/>
-      <c r="J123" s="8"/>
-      <c r="L123" s="1"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1160091</v>
       </c>
@@ -3454,14 +3563,10 @@
         <v>1</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="1"/>
-      <c r="J124" s="8"/>
-      <c r="L124" s="1"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1160093</v>
       </c>
@@ -3478,14 +3583,10 @@
         <v>1</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H125" s="1"/>
-      <c r="J125" s="8"/>
-      <c r="L125" s="1"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1160096</v>
       </c>
@@ -3502,14 +3603,10 @@
         <v>2</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="1"/>
-      <c r="J126" s="8"/>
-      <c r="L126" s="1"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1160097</v>
       </c>
@@ -3526,14 +3623,10 @@
         <v>1</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="1"/>
-      <c r="J127" s="8"/>
-      <c r="L127" s="1"/>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1160098</v>
       </c>
@@ -3550,14 +3643,10 @@
         <v>2</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H128" s="1"/>
-      <c r="J128" s="8"/>
-      <c r="L128" s="1"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1160099</v>
       </c>
@@ -3574,14 +3663,10 @@
         <v>2</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="1"/>
-      <c r="J129" s="8"/>
-      <c r="L129" s="1"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1160101</v>
       </c>
@@ -3598,14 +3683,10 @@
         <v>2</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H130" s="1"/>
-      <c r="J130" s="8"/>
-      <c r="L130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1160102</v>
       </c>
@@ -3622,14 +3703,10 @@
         <v>2</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="1"/>
-      <c r="J131" s="8"/>
-      <c r="L131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1160103</v>
       </c>
@@ -3646,14 +3723,10 @@
         <v>2</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H132" s="1"/>
-      <c r="J132" s="8"/>
-      <c r="L132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1160106</v>
       </c>
@@ -3670,14 +3743,10 @@
         <v>2</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="1"/>
-      <c r="J133" s="8"/>
-      <c r="L133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1160111</v>
       </c>
@@ -3694,14 +3763,10 @@
         <v>1</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H134" s="1"/>
-      <c r="J134" s="8"/>
-      <c r="L134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1160113</v>
       </c>
@@ -3718,14 +3783,10 @@
         <v>1</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H135" s="1"/>
-      <c r="J135" s="8"/>
-      <c r="L135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1160114</v>
       </c>
@@ -3742,14 +3803,10 @@
         <v>1</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H136" s="1"/>
-      <c r="J136" s="8"/>
-      <c r="L136" s="1"/>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1160117</v>
       </c>
@@ -3766,14 +3823,10 @@
         <v>1</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="1"/>
-      <c r="J137" s="8"/>
-      <c r="L137" s="1"/>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1160118</v>
       </c>
@@ -3790,14 +3843,10 @@
         <v>1</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H138" s="1"/>
-      <c r="J138" s="8"/>
-      <c r="L138" s="1"/>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1160119</v>
       </c>
@@ -3814,14 +3863,10 @@
         <v>1</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="1"/>
-      <c r="J139" s="8"/>
-      <c r="L139" s="1"/>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1160120</v>
       </c>
@@ -3838,14 +3883,10 @@
         <v>1</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="1"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="1"/>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1160123</v>
       </c>
@@ -3862,14 +3903,10 @@
         <v>1</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="1"/>
-      <c r="J141" s="8"/>
-      <c r="L141" s="1"/>
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1160125</v>
       </c>
@@ -3886,14 +3923,10 @@
         <v>1</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H142" s="1"/>
-      <c r="J142" s="8"/>
-      <c r="L142" s="1"/>
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1160127</v>
       </c>
@@ -3910,14 +3943,10 @@
         <v>2</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H143" s="1"/>
-      <c r="J143" s="8"/>
-      <c r="L143" s="1"/>
-      <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1160128</v>
       </c>
@@ -3934,14 +3963,10 @@
         <v>1</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H144" s="1"/>
-      <c r="J144" s="8"/>
-      <c r="L144" s="1"/>
-      <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1160131</v>
       </c>
@@ -3958,14 +3983,10 @@
         <v>2</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="1"/>
-      <c r="J145" s="8"/>
-      <c r="L145" s="1"/>
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1160133</v>
       </c>
@@ -3982,14 +4003,10 @@
         <v>2</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H146" s="1"/>
-      <c r="J146" s="8"/>
-      <c r="L146" s="1"/>
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1160134</v>
       </c>
@@ -4006,14 +4023,10 @@
         <v>2</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H147" s="1"/>
-      <c r="J147" s="8"/>
-      <c r="L147" s="1"/>
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1160137</v>
       </c>
@@ -4030,14 +4043,10 @@
         <v>1</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H148" s="1"/>
-      <c r="J148" s="8"/>
-      <c r="L148" s="1"/>
-      <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1160138</v>
       </c>
@@ -4054,14 +4063,10 @@
         <v>2</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H149" s="1"/>
-      <c r="J149" s="8"/>
-      <c r="L149" s="1"/>
-      <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1160139</v>
       </c>
@@ -4078,14 +4083,10 @@
         <v>2</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H150" s="1"/>
-      <c r="J150" s="8"/>
-      <c r="L150" s="1"/>
-      <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1160140</v>
       </c>
@@ -4102,14 +4103,10 @@
         <v>2</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H151" s="1"/>
-      <c r="J151" s="8"/>
-      <c r="L151" s="1"/>
-      <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1160143</v>
       </c>
@@ -4126,14 +4123,10 @@
         <v>2</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" s="1"/>
-      <c r="J152" s="8"/>
-      <c r="L152" s="1"/>
-      <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1160146</v>
       </c>
@@ -4150,14 +4143,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H153" s="1"/>
-      <c r="J153" s="8"/>
-      <c r="L153" s="1"/>
-      <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1160151</v>
       </c>
@@ -4174,14 +4163,10 @@
         <v>1</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H154" s="1"/>
-      <c r="J154" s="8"/>
-      <c r="L154" s="1"/>
-      <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1160152</v>
       </c>
@@ -4198,14 +4183,10 @@
         <v>1</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" s="1"/>
-      <c r="J155" s="8"/>
-      <c r="L155" s="1"/>
-      <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1160154</v>
       </c>
@@ -4222,14 +4203,10 @@
         <v>1</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H156" s="1"/>
-      <c r="J156" s="8"/>
-      <c r="L156" s="1"/>
-      <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1160155</v>
       </c>
@@ -4246,14 +4223,10 @@
         <v>1</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H157" s="1"/>
-      <c r="J157" s="8"/>
-      <c r="L157" s="1"/>
-      <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1160156</v>
       </c>
@@ -4270,14 +4243,10 @@
         <v>1</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H158" s="1"/>
-      <c r="J158" s="8"/>
-      <c r="L158" s="1"/>
-      <c r="N158" s="1"/>
-    </row>
-    <row r="159" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1160157</v>
       </c>
@@ -4294,14 +4263,10 @@
         <v>1</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H159" s="1"/>
-      <c r="J159" s="8"/>
-      <c r="L159" s="1"/>
-      <c r="N159" s="1"/>
-    </row>
-    <row r="160" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1160160</v>
       </c>
@@ -4318,14 +4283,10 @@
         <v>2</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H160" s="1"/>
-      <c r="J160" s="8"/>
-      <c r="L160" s="1"/>
-      <c r="N160" s="1"/>
-    </row>
-    <row r="161" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1160163</v>
       </c>
@@ -4342,14 +4303,10 @@
         <v>1</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H161" s="1"/>
-      <c r="J161" s="8"/>
-      <c r="L161" s="1"/>
-      <c r="N161" s="1"/>
-    </row>
-    <row r="162" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1160164</v>
       </c>
@@ -4366,14 +4323,10 @@
         <v>2</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="1"/>
-      <c r="J162" s="8"/>
-      <c r="L162" s="1"/>
-      <c r="N162" s="1"/>
-    </row>
-    <row r="163" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1160165</v>
       </c>
@@ -4390,14 +4343,10 @@
         <v>2</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H163" s="1"/>
-      <c r="J163" s="8"/>
-      <c r="L163" s="1"/>
-      <c r="N163" s="1"/>
-    </row>
-    <row r="164" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1160166</v>
       </c>
@@ -4414,14 +4363,10 @@
         <v>2</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H164" s="1"/>
-      <c r="J164" s="8"/>
-      <c r="L164" s="1"/>
-      <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1160170</v>
       </c>
@@ -4438,14 +4383,10 @@
         <v>2</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H165" s="1"/>
-      <c r="J165" s="8"/>
-      <c r="L165" s="1"/>
-      <c r="N165" s="1"/>
-    </row>
-    <row r="166" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1160172</v>
       </c>
@@ -4462,14 +4403,10 @@
         <v>2</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H166" s="1"/>
-      <c r="J166" s="8"/>
-      <c r="L166" s="1"/>
-      <c r="N166" s="1"/>
-    </row>
-    <row r="167" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1160173</v>
       </c>
@@ -4486,14 +4423,10 @@
         <v>1</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H167" s="1"/>
-      <c r="J167" s="8"/>
-      <c r="L167" s="1"/>
-      <c r="N167" s="1"/>
-    </row>
-    <row r="168" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1160174</v>
       </c>
@@ -4510,14 +4443,10 @@
         <v>2</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H168" s="1"/>
-      <c r="J168" s="8"/>
-      <c r="L168" s="1"/>
-      <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1160179</v>
       </c>
@@ -4534,14 +4463,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H169" s="1"/>
-      <c r="J169" s="8"/>
-      <c r="L169" s="1"/>
-      <c r="N169" s="1"/>
-    </row>
-    <row r="170" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1160180</v>
       </c>
@@ -4558,14 +4483,10 @@
         <v>1</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="1"/>
-      <c r="J170" s="8"/>
-      <c r="L170" s="1"/>
-      <c r="N170" s="1"/>
-    </row>
-    <row r="171" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1160182</v>
       </c>
@@ -4582,14 +4503,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H171" s="1"/>
-      <c r="J171" s="8"/>
-      <c r="L171" s="1"/>
-      <c r="N171" s="1"/>
-    </row>
-    <row r="172" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1160183</v>
       </c>
@@ -4606,14 +4523,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H172" s="1"/>
-      <c r="J172" s="8"/>
-      <c r="L172" s="1"/>
-      <c r="N172" s="1"/>
-    </row>
-    <row r="173" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1160187</v>
       </c>
@@ -4630,14 +4543,10 @@
         <v>2</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H173" s="1"/>
-      <c r="J173" s="8"/>
-      <c r="L173" s="1"/>
-      <c r="N173" s="1"/>
-    </row>
-    <row r="174" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1160189</v>
       </c>
@@ -4654,14 +4563,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H174" s="1"/>
-      <c r="J174" s="8"/>
-      <c r="L174" s="1"/>
-      <c r="N174" s="1"/>
-    </row>
-    <row r="175" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1160194</v>
       </c>
@@ -4678,14 +4583,10 @@
         <v>2</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H175" s="1"/>
-      <c r="J175" s="8"/>
-      <c r="L175" s="1"/>
-      <c r="N175" s="1"/>
-    </row>
-    <row r="176" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1160196</v>
       </c>
@@ -4702,14 +4603,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H176" s="1"/>
-      <c r="J176" s="8"/>
-      <c r="L176" s="1"/>
-      <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1160197</v>
       </c>
@@ -4726,14 +4623,10 @@
         <v>2</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H177" s="1"/>
-      <c r="J177" s="8"/>
-      <c r="L177" s="1"/>
-      <c r="N177" s="1"/>
-    </row>
-    <row r="178" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1160198</v>
       </c>
@@ -4750,14 +4643,10 @@
         <v>2</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H178" s="1"/>
-      <c r="J178" s="8"/>
-      <c r="L178" s="1"/>
-      <c r="N178" s="1"/>
-    </row>
-    <row r="179" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1160199</v>
       </c>
@@ -4774,14 +4663,10 @@
         <v>2</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H179" s="1"/>
-      <c r="J179" s="8"/>
-      <c r="L179" s="1"/>
-      <c r="N179" s="1"/>
-    </row>
-    <row r="180" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1160201</v>
       </c>
@@ -4798,14 +4683,10 @@
         <v>2</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H180" s="1"/>
-      <c r="J180" s="8"/>
-      <c r="L180" s="1"/>
-      <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1160202</v>
       </c>
@@ -4822,14 +4703,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H181" s="1"/>
-      <c r="J181" s="8"/>
-      <c r="L181" s="1"/>
-      <c r="N181" s="1"/>
-    </row>
-    <row r="182" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1160204</v>
       </c>
@@ -4846,14 +4723,10 @@
         <v>2</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H182" s="1"/>
-      <c r="J182" s="8"/>
-      <c r="L182" s="1"/>
-      <c r="N182" s="1"/>
-    </row>
-    <row r="183" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1160209</v>
       </c>
@@ -4870,14 +4743,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H183" s="1"/>
-      <c r="J183" s="8"/>
-      <c r="L183" s="1"/>
-      <c r="N183" s="1"/>
-    </row>
-    <row r="184" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1160210</v>
       </c>
@@ -4894,14 +4763,10 @@
         <v>2</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H184" s="1"/>
-      <c r="J184" s="8"/>
-      <c r="L184" s="1"/>
-      <c r="N184" s="1"/>
-    </row>
-    <row r="185" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1160216</v>
       </c>
@@ -4918,14 +4783,10 @@
         <v>2</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H185" s="1"/>
-      <c r="J185" s="8"/>
-      <c r="L185" s="1"/>
-      <c r="N185" s="1"/>
-    </row>
-    <row r="186" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1160217</v>
       </c>
@@ -4942,14 +4803,10 @@
         <v>1</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H186" s="1"/>
-      <c r="J186" s="8"/>
-      <c r="L186" s="1"/>
-      <c r="N186" s="1"/>
-    </row>
-    <row r="187" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1160218</v>
       </c>
@@ -4966,14 +4823,10 @@
         <v>1</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H187" s="1"/>
-      <c r="J187" s="8"/>
-      <c r="L187" s="1"/>
-      <c r="N187" s="1"/>
-    </row>
-    <row r="188" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1160219</v>
       </c>
@@ -4990,14 +4843,10 @@
         <v>1</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H188" s="1"/>
-      <c r="J188" s="8"/>
-      <c r="L188" s="1"/>
-      <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1160221</v>
       </c>
@@ -5014,14 +4863,10 @@
         <v>2</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H189" s="1"/>
-      <c r="J189" s="8"/>
-      <c r="L189" s="1"/>
-      <c r="N189" s="1"/>
-    </row>
-    <row r="190" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1160222</v>
       </c>
@@ -5038,14 +4883,10 @@
         <v>1</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H190" s="1"/>
-      <c r="J190" s="8"/>
-      <c r="L190" s="1"/>
-      <c r="N190" s="1"/>
-    </row>
-    <row r="191" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1160224</v>
       </c>
@@ -5062,14 +4903,10 @@
         <v>1</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H191" s="1"/>
-      <c r="J191" s="8"/>
-      <c r="L191" s="1"/>
-      <c r="N191" s="1"/>
-    </row>
-    <row r="192" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1160228</v>
       </c>
@@ -5086,14 +4923,10 @@
         <v>1</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H192" s="1"/>
-      <c r="J192" s="8"/>
-      <c r="L192" s="1"/>
-      <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1160230</v>
       </c>
@@ -5110,14 +4943,10 @@
         <v>2</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H193" s="1"/>
-      <c r="J193" s="8"/>
-      <c r="L193" s="1"/>
-      <c r="N193" s="1"/>
-    </row>
-    <row r="194" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1160231</v>
       </c>
@@ -5134,14 +4963,10 @@
         <v>2</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H194" s="1"/>
-      <c r="J194" s="8"/>
-      <c r="L194" s="1"/>
-      <c r="N194" s="1"/>
-    </row>
-    <row r="195" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1160234</v>
       </c>
@@ -5158,14 +4983,10 @@
         <v>1</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H195" s="1"/>
-      <c r="J195" s="8"/>
-      <c r="L195" s="1"/>
-      <c r="N195" s="1"/>
-    </row>
-    <row r="196" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1160235</v>
       </c>
@@ -5182,14 +5003,10 @@
         <v>2</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H196" s="1"/>
-      <c r="J196" s="8"/>
-      <c r="L196" s="1"/>
-      <c r="N196" s="1"/>
-    </row>
-    <row r="197" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1160236</v>
       </c>
@@ -5206,14 +5023,10 @@
         <v>2</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H197" s="1"/>
-      <c r="J197" s="8"/>
-      <c r="L197" s="1"/>
-      <c r="N197" s="1"/>
-    </row>
-    <row r="198" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1160237</v>
       </c>
@@ -5230,14 +5043,10 @@
         <v>2</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H198" s="1"/>
-      <c r="J198" s="8"/>
-      <c r="L198" s="1"/>
-      <c r="N198" s="1"/>
-    </row>
-    <row r="199" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1160238</v>
       </c>
@@ -5254,14 +5063,10 @@
         <v>2</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H199" s="1"/>
-      <c r="J199" s="8"/>
-      <c r="L199" s="1"/>
-      <c r="N199" s="1"/>
-    </row>
-    <row r="200" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1160241</v>
       </c>
@@ -5278,14 +5083,10 @@
         <v>2</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H200" s="1"/>
-      <c r="J200" s="8"/>
-      <c r="L200" s="1"/>
-      <c r="N200" s="1"/>
-    </row>
-    <row r="201" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1160242</v>
       </c>
@@ -5302,14 +5103,10 @@
         <v>1</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H201" s="1"/>
-      <c r="J201" s="8"/>
-      <c r="L201" s="1"/>
-      <c r="N201" s="1"/>
-    </row>
-    <row r="202" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1160243</v>
       </c>
@@ -5326,14 +5123,10 @@
         <v>1</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H202" s="1"/>
-      <c r="J202" s="8"/>
-      <c r="L202" s="1"/>
-      <c r="N202" s="1"/>
-    </row>
-    <row r="203" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1160244</v>
       </c>
@@ -5350,14 +5143,10 @@
         <v>2</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H203" s="1"/>
-      <c r="J203" s="8"/>
-      <c r="L203" s="1"/>
-      <c r="N203" s="1"/>
-    </row>
-    <row r="204" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1160245</v>
       </c>
@@ -5374,14 +5163,10 @@
         <v>1</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H204" s="1"/>
-      <c r="J204" s="8"/>
-      <c r="L204" s="1"/>
-      <c r="N204" s="1"/>
-    </row>
-    <row r="205" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1160246</v>
       </c>
@@ -5398,14 +5183,10 @@
         <v>1</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H205" s="1"/>
-      <c r="J205" s="8"/>
-      <c r="L205" s="1"/>
-      <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1160247</v>
       </c>
@@ -5422,14 +5203,10 @@
         <v>2</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H206" s="1"/>
-      <c r="J206" s="8"/>
-      <c r="L206" s="1"/>
-      <c r="N206" s="1"/>
-    </row>
-    <row r="207" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1160252</v>
       </c>
@@ -5446,14 +5223,10 @@
         <v>2</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H207" s="1"/>
-      <c r="J207" s="8"/>
-      <c r="L207" s="1"/>
-      <c r="N207" s="1"/>
-    </row>
-    <row r="208" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1160254</v>
       </c>
@@ -5470,14 +5243,10 @@
         <v>1</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H208" s="1"/>
-      <c r="J208" s="8"/>
-      <c r="L208" s="1"/>
-      <c r="N208" s="1"/>
-    </row>
-    <row r="209" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1160256</v>
       </c>
@@ -5494,14 +5263,10 @@
         <v>2</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H209" s="1"/>
-      <c r="J209" s="8"/>
-      <c r="L209" s="1"/>
-      <c r="N209" s="1"/>
-    </row>
-    <row r="210" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1160258</v>
       </c>
@@ -5518,14 +5283,10 @@
         <v>2</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H210" s="1"/>
-      <c r="J210" s="8"/>
-      <c r="L210" s="1"/>
-      <c r="N210" s="1"/>
-    </row>
-    <row r="211" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1160261</v>
       </c>
@@ -5542,14 +5303,10 @@
         <v>2</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H211" s="1"/>
-      <c r="J211" s="8"/>
-      <c r="L211" s="1"/>
-      <c r="N211" s="1"/>
-    </row>
-    <row r="212" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1160262</v>
       </c>
@@ -5566,14 +5323,10 @@
         <v>1</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H212" s="1"/>
-      <c r="J212" s="8"/>
-      <c r="L212" s="1"/>
-      <c r="N212" s="1"/>
-    </row>
-    <row r="213" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1160265</v>
       </c>
@@ -5590,14 +5343,10 @@
         <v>2</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H213" s="1"/>
-      <c r="J213" s="8"/>
-      <c r="L213" s="1"/>
-      <c r="N213" s="1"/>
-    </row>
-    <row r="214" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1160268</v>
       </c>
@@ -5614,14 +5363,10 @@
         <v>1</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H214" s="1"/>
-      <c r="J214" s="8"/>
-      <c r="L214" s="1"/>
-      <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1160269</v>
       </c>
@@ -5638,14 +5383,10 @@
         <v>2</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H215" s="1"/>
-      <c r="J215" s="8"/>
-      <c r="L215" s="1"/>
-      <c r="N215" s="1"/>
-    </row>
-    <row r="216" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1160270</v>
       </c>
@@ -5662,14 +5403,10 @@
         <v>2</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H216" s="1"/>
-      <c r="J216" s="8"/>
-      <c r="L216" s="1"/>
-      <c r="N216" s="1"/>
-    </row>
-    <row r="217" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1160271</v>
       </c>
@@ -5686,14 +5423,10 @@
         <v>1</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H217" s="1"/>
-      <c r="J217" s="8"/>
-      <c r="L217" s="1"/>
-      <c r="N217" s="1"/>
-    </row>
-    <row r="218" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1160272</v>
       </c>
@@ -5710,14 +5443,10 @@
         <v>1</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H218" s="1"/>
-      <c r="J218" s="8"/>
-      <c r="L218" s="1"/>
-      <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>1160273</v>
       </c>
@@ -5734,14 +5463,10 @@
         <v>1</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H219" s="1"/>
-      <c r="J219" s="8"/>
-      <c r="L219" s="1"/>
-      <c r="N219" s="1"/>
-    </row>
-    <row r="220" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1160276</v>
       </c>
@@ -5758,14 +5483,10 @@
         <v>2</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H220" s="1"/>
-      <c r="J220" s="8"/>
-      <c r="L220" s="1"/>
-      <c r="N220" s="1"/>
-    </row>
-    <row r="221" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>1160277</v>
       </c>
@@ -5782,14 +5503,10 @@
         <v>1</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H221" s="1"/>
-      <c r="J221" s="8"/>
-      <c r="L221" s="1"/>
-      <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1160279</v>
       </c>
@@ -5806,14 +5523,10 @@
         <v>1</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H222" s="1"/>
-      <c r="J222" s="8"/>
-      <c r="L222" s="1"/>
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1160281</v>
       </c>
@@ -5830,14 +5543,10 @@
         <v>2</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H223" s="1"/>
-      <c r="J223" s="8"/>
-      <c r="L223" s="1"/>
-      <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1160282</v>
       </c>
@@ -5854,14 +5563,10 @@
         <v>1</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H224" s="1"/>
-      <c r="J224" s="8"/>
-      <c r="L224" s="1"/>
-      <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1160286</v>
       </c>
@@ -5878,14 +5583,10 @@
         <v>2</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H225" s="1"/>
-      <c r="J225" s="8"/>
-      <c r="L225" s="1"/>
-      <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1160287</v>
       </c>
@@ -5902,14 +5603,10 @@
         <v>1</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H226" s="1"/>
-      <c r="J226" s="8"/>
-      <c r="L226" s="1"/>
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1160288</v>
       </c>
@@ -5926,14 +5623,10 @@
         <v>2</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H227" s="1"/>
-      <c r="J227" s="8"/>
-      <c r="L227" s="1"/>
-      <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1160289</v>
       </c>
@@ -5950,14 +5643,10 @@
         <v>2</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H228" s="1"/>
-      <c r="J228" s="8"/>
-      <c r="L228" s="1"/>
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1160291</v>
       </c>
@@ -5974,14 +5663,10 @@
         <v>2</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H229" s="1"/>
-      <c r="J229" s="8"/>
-      <c r="L229" s="1"/>
-      <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1160292</v>
       </c>
@@ -5998,14 +5683,10 @@
         <v>1</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H230" s="1"/>
-      <c r="J230" s="8"/>
-      <c r="L230" s="1"/>
-      <c r="N230" s="1"/>
-    </row>
-    <row r="231" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1160298</v>
       </c>
@@ -6022,14 +5703,10 @@
         <v>1</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H231" s="1"/>
-      <c r="J231" s="8"/>
-      <c r="L231" s="1"/>
-      <c r="N231" s="1"/>
-    </row>
-    <row r="232" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1160299</v>
       </c>
@@ -6046,14 +5723,10 @@
         <v>2</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H232" s="1"/>
-      <c r="J232" s="8"/>
-      <c r="L232" s="1"/>
-      <c r="N232" s="1"/>
-    </row>
-    <row r="233" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1160301</v>
       </c>
@@ -6070,14 +5743,10 @@
         <v>2</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H233" s="1"/>
-      <c r="J233" s="8"/>
-      <c r="L233" s="1"/>
-      <c r="N233" s="1"/>
-    </row>
-    <row r="234" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1160302</v>
       </c>
@@ -6094,14 +5763,10 @@
         <v>1</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H234" s="1"/>
-      <c r="J234" s="8"/>
-      <c r="L234" s="1"/>
-      <c r="N234" s="1"/>
-    </row>
-    <row r="235" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1160303</v>
       </c>
@@ -6118,14 +5783,10 @@
         <v>1</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H235" s="1"/>
-      <c r="J235" s="8"/>
-      <c r="L235" s="1"/>
-      <c r="N235" s="1"/>
-    </row>
-    <row r="236" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1160304</v>
       </c>
@@ -6142,14 +5803,10 @@
         <v>1</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H236" s="1"/>
-      <c r="J236" s="8"/>
-      <c r="L236" s="1"/>
-      <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1160305</v>
       </c>
@@ -6166,14 +5823,10 @@
         <v>1</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H237" s="1"/>
-      <c r="J237" s="8"/>
-      <c r="L237" s="1"/>
-      <c r="N237" s="1"/>
-    </row>
-    <row r="238" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1160307</v>
       </c>
@@ -6190,14 +5843,10 @@
         <v>2</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H238" s="1"/>
-      <c r="J238" s="8"/>
-      <c r="L238" s="1"/>
-      <c r="N238" s="1"/>
-    </row>
-    <row r="239" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>1160308</v>
       </c>
@@ -6214,14 +5863,10 @@
         <v>1</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H239" s="1"/>
-      <c r="J239" s="8"/>
-      <c r="L239" s="1"/>
-      <c r="N239" s="1"/>
-    </row>
-    <row r="240" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1160310</v>
       </c>
@@ -6238,14 +5883,10 @@
         <v>1</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H240" s="1"/>
-      <c r="J240" s="8"/>
-      <c r="L240" s="1"/>
-      <c r="N240" s="1"/>
-    </row>
-    <row r="241" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>1160314</v>
       </c>
@@ -6262,14 +5903,10 @@
         <v>2</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H241" s="1"/>
-      <c r="J241" s="8"/>
-      <c r="L241" s="1"/>
-      <c r="N241" s="1"/>
-    </row>
-    <row r="242" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1160315</v>
       </c>
@@ -6288,12 +5925,8 @@
       <c r="G242" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H242" s="1"/>
-      <c r="J242" s="8"/>
-      <c r="L242" s="1"/>
-      <c r="N242" s="1"/>
-    </row>
-    <row r="243" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1160318</v>
       </c>
@@ -6310,14 +5943,10 @@
         <v>2</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H243" s="1"/>
-      <c r="J243" s="8"/>
-      <c r="L243" s="1"/>
-      <c r="N243" s="1"/>
-    </row>
-    <row r="244" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>1160320</v>
       </c>
@@ -6334,14 +5963,10 @@
         <v>2</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H244" s="1"/>
-      <c r="J244" s="8"/>
-      <c r="L244" s="1"/>
-      <c r="N244" s="1"/>
-    </row>
-    <row r="245" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>1160325</v>
       </c>
@@ -6358,14 +5983,10 @@
         <v>2</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H245" s="1"/>
-      <c r="J245" s="8"/>
-      <c r="L245" s="1"/>
-      <c r="N245" s="1"/>
-    </row>
-    <row r="246" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>1160326</v>
       </c>
@@ -6382,14 +6003,10 @@
         <v>2</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H246" s="1"/>
-      <c r="J246" s="8"/>
-      <c r="L246" s="1"/>
-      <c r="N246" s="1"/>
-    </row>
-    <row r="247" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>1160329</v>
       </c>
@@ -6406,14 +6023,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H247" s="1"/>
-      <c r="J247" s="8"/>
-      <c r="L247" s="1"/>
-      <c r="N247" s="1"/>
-    </row>
-    <row r="248" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>1160330</v>
       </c>
@@ -6430,14 +6043,10 @@
         <v>1</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H248" s="1"/>
-      <c r="J248" s="8"/>
-      <c r="L248" s="1"/>
-      <c r="N248" s="1"/>
-    </row>
-    <row r="249" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>1160331</v>
       </c>
@@ -6454,14 +6063,10 @@
         <v>2</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H249" s="1"/>
-      <c r="J249" s="8"/>
-      <c r="L249" s="1"/>
-      <c r="N249" s="1"/>
-    </row>
-    <row r="250" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>1160336</v>
       </c>
@@ -6478,14 +6083,10 @@
         <v>1</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H250" s="1"/>
-      <c r="J250" s="8"/>
-      <c r="L250" s="1"/>
-      <c r="N250" s="1"/>
-    </row>
-    <row r="251" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1160337</v>
       </c>
@@ -6502,14 +6103,10 @@
         <v>1</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H251" s="1"/>
-      <c r="J251" s="8"/>
-      <c r="L251" s="1"/>
-      <c r="N251" s="1"/>
-    </row>
-    <row r="252" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1160338</v>
       </c>
@@ -6526,14 +6123,10 @@
         <v>2</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H252" s="1"/>
-      <c r="J252" s="8"/>
-      <c r="L252" s="1"/>
-      <c r="N252" s="1"/>
-    </row>
-    <row r="253" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1160340</v>
       </c>
@@ -6550,14 +6143,10 @@
         <v>1</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H253" s="1"/>
-      <c r="J253" s="8"/>
-      <c r="L253" s="1"/>
-      <c r="N253" s="1"/>
-    </row>
-    <row r="254" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>1160341</v>
       </c>
@@ -6574,14 +6163,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H254" s="1"/>
-      <c r="J254" s="8"/>
-      <c r="L254" s="1"/>
-      <c r="N254" s="1"/>
-    </row>
-    <row r="255" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1160342</v>
       </c>
@@ -6598,14 +6183,10 @@
         <v>1</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H255" s="1"/>
-      <c r="J255" s="8"/>
-      <c r="L255" s="1"/>
-      <c r="N255" s="1"/>
-    </row>
-    <row r="256" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1160344</v>
       </c>
@@ -6622,14 +6203,10 @@
         <v>1</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H256" s="1"/>
-      <c r="J256" s="8"/>
-      <c r="L256" s="1"/>
-      <c r="N256" s="1"/>
-    </row>
-    <row r="257" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1160345</v>
       </c>
@@ -6646,14 +6223,10 @@
         <v>2</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H257" s="1"/>
-      <c r="J257" s="8"/>
-      <c r="L257" s="1"/>
-      <c r="N257" s="1"/>
-    </row>
-    <row r="258" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>1160349</v>
       </c>
@@ -6670,14 +6243,10 @@
         <v>1</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H258" s="1"/>
-      <c r="J258" s="8"/>
-      <c r="L258" s="1"/>
-      <c r="N258" s="1"/>
-    </row>
-    <row r="259" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>1160351</v>
       </c>
@@ -6694,14 +6263,10 @@
         <v>1</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H259" s="1"/>
-      <c r="J259" s="8"/>
-      <c r="L259" s="1"/>
-      <c r="N259" s="1"/>
-    </row>
-    <row r="260" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>1160352</v>
       </c>
@@ -6718,14 +6283,10 @@
         <v>1</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H260" s="1"/>
-      <c r="J260" s="8"/>
-      <c r="L260" s="1"/>
-      <c r="N260" s="1"/>
-    </row>
-    <row r="261" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1160353</v>
       </c>
@@ -6742,14 +6303,10 @@
         <v>2</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H261" s="1"/>
-      <c r="J261" s="8"/>
-      <c r="L261" s="1"/>
-      <c r="N261" s="1"/>
-    </row>
-    <row r="262" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>1160354</v>
       </c>
@@ -6766,14 +6323,10 @@
         <v>1</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H262" s="1"/>
-      <c r="J262" s="8"/>
-      <c r="L262" s="1"/>
-      <c r="N262" s="1"/>
-    </row>
-    <row r="263" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1160359</v>
       </c>
@@ -6790,14 +6343,10 @@
         <v>2</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H263" s="1"/>
-      <c r="J263" s="8"/>
-      <c r="L263" s="1"/>
-      <c r="N263" s="1"/>
-    </row>
-    <row r="264" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1160360</v>
       </c>
@@ -6814,14 +6363,10 @@
         <v>2</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H264" s="1"/>
-      <c r="J264" s="8"/>
-      <c r="L264" s="1"/>
-      <c r="N264" s="1"/>
-    </row>
-    <row r="265" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1160361</v>
       </c>
@@ -6838,14 +6383,10 @@
         <v>2</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H265" s="1"/>
-      <c r="J265" s="8"/>
-      <c r="L265" s="1"/>
-      <c r="N265" s="1"/>
-    </row>
-    <row r="266" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1160362</v>
       </c>
@@ -6862,14 +6403,10 @@
         <v>2</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H266" s="1"/>
-      <c r="J266" s="8"/>
-      <c r="L266" s="1"/>
-      <c r="N266" s="1"/>
-    </row>
-    <row r="267" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1160363</v>
       </c>
@@ -6886,14 +6423,10 @@
         <v>2</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H267" s="1"/>
-      <c r="J267" s="8"/>
-      <c r="L267" s="1"/>
-      <c r="N267" s="1"/>
-    </row>
-    <row r="268" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1160364</v>
       </c>
@@ -6910,14 +6443,10 @@
         <v>2</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H268" s="1"/>
-      <c r="J268" s="8"/>
-      <c r="L268" s="1"/>
-      <c r="N268" s="1"/>
-    </row>
-    <row r="269" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1160367</v>
       </c>
@@ -6934,14 +6463,10 @@
         <v>2</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H269" s="1"/>
-      <c r="J269" s="8"/>
-      <c r="L269" s="1"/>
-      <c r="N269" s="1"/>
-    </row>
-    <row r="270" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1160368</v>
       </c>
@@ -6958,14 +6483,10 @@
         <v>2</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H270" s="1"/>
-      <c r="J270" s="8"/>
-      <c r="L270" s="1"/>
-      <c r="N270" s="1"/>
-    </row>
-    <row r="271" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1160371</v>
       </c>
@@ -6982,14 +6503,10 @@
         <v>1</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H271" s="1"/>
-      <c r="J271" s="8"/>
-      <c r="L271" s="1"/>
-      <c r="N271" s="1"/>
-    </row>
-    <row r="272" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1160373</v>
       </c>
@@ -7006,14 +6523,10 @@
         <v>1</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H272" s="1"/>
-      <c r="J272" s="8"/>
-      <c r="L272" s="1"/>
-      <c r="N272" s="1"/>
-    </row>
-    <row r="273" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1160374</v>
       </c>
@@ -7030,14 +6543,10 @@
         <v>1</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H273" s="1"/>
-      <c r="J273" s="8"/>
-      <c r="L273" s="1"/>
-      <c r="N273" s="1"/>
-    </row>
-    <row r="274" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1160376</v>
       </c>
@@ -7054,14 +6563,10 @@
         <v>1</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H274" s="1"/>
-      <c r="J274" s="8"/>
-      <c r="L274" s="1"/>
-      <c r="N274" s="1"/>
-    </row>
-    <row r="275" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1160377</v>
       </c>
@@ -7078,14 +6583,10 @@
         <v>1</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H275" s="1"/>
-      <c r="J275" s="8"/>
-      <c r="L275" s="1"/>
-      <c r="N275" s="1"/>
-    </row>
-    <row r="276" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1160378</v>
       </c>
@@ -7102,14 +6603,10 @@
         <v>1</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H276" s="1"/>
-      <c r="J276" s="8"/>
-      <c r="L276" s="1"/>
-      <c r="N276" s="1"/>
-    </row>
-    <row r="277" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1160384</v>
       </c>
@@ -7126,14 +6623,10 @@
         <v>1</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H277" s="1"/>
-      <c r="J277" s="8"/>
-      <c r="L277" s="1"/>
-      <c r="N277" s="1"/>
-    </row>
-    <row r="278" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1160385</v>
       </c>
@@ -7150,14 +6643,10 @@
         <v>1</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H278" s="1"/>
-      <c r="J278" s="8"/>
-      <c r="L278" s="1"/>
-      <c r="N278" s="1"/>
-    </row>
-    <row r="279" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1160388</v>
       </c>
@@ -7174,14 +6663,10 @@
         <v>2</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H279" s="1"/>
-      <c r="J279" s="8"/>
-      <c r="L279" s="1"/>
-      <c r="N279" s="1"/>
-    </row>
-    <row r="280" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1160390</v>
       </c>
@@ -7198,14 +6683,10 @@
         <v>2</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H280" s="1"/>
-      <c r="J280" s="8"/>
-      <c r="L280" s="1"/>
-      <c r="N280" s="1"/>
-    </row>
-    <row r="281" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1160391</v>
       </c>
@@ -7222,14 +6703,10 @@
         <v>2</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H281" s="1"/>
-      <c r="J281" s="8"/>
-      <c r="L281" s="1"/>
-      <c r="N281" s="1"/>
-    </row>
-    <row r="282" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1160392</v>
       </c>
@@ -7246,14 +6723,10 @@
         <v>2</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H282" s="1"/>
-      <c r="J282" s="8"/>
-      <c r="L282" s="1"/>
-      <c r="N282" s="1"/>
-    </row>
-    <row r="283" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1160396</v>
       </c>
@@ -7270,14 +6743,10 @@
         <v>2</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H283" s="1"/>
-      <c r="J283" s="8"/>
-      <c r="L283" s="1"/>
-      <c r="N283" s="1"/>
-    </row>
-    <row r="284" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1160397</v>
       </c>
@@ -7294,14 +6763,10 @@
         <v>2</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H284" s="1"/>
-      <c r="J284" s="8"/>
-      <c r="L284" s="1"/>
-      <c r="N284" s="1"/>
-    </row>
-    <row r="285" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1160402</v>
       </c>
@@ -7318,14 +6783,10 @@
         <v>2</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H285" s="1"/>
-      <c r="J285" s="8"/>
-      <c r="L285" s="1"/>
-      <c r="N285" s="1"/>
-    </row>
-    <row r="286" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1160403</v>
       </c>
@@ -7342,14 +6803,10 @@
         <v>2</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H286" s="1"/>
-      <c r="J286" s="8"/>
-      <c r="L286" s="1"/>
-      <c r="N286" s="1"/>
-    </row>
-    <row r="287" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1160406</v>
       </c>
@@ -7366,14 +6823,10 @@
         <v>1</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H287" s="1"/>
-      <c r="J287" s="8"/>
-      <c r="L287" s="1"/>
-      <c r="N287" s="1"/>
-    </row>
-    <row r="288" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1160408</v>
       </c>
@@ -7390,14 +6843,10 @@
         <v>1</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H288" s="1"/>
-      <c r="J288" s="8"/>
-      <c r="L288" s="1"/>
-      <c r="N288" s="1"/>
-    </row>
-    <row r="289" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1160409</v>
       </c>
@@ -7414,14 +6863,10 @@
         <v>1</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H289" s="1"/>
-      <c r="J289" s="8"/>
-      <c r="L289" s="1"/>
-      <c r="N289" s="1"/>
-    </row>
-    <row r="290" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1160410</v>
       </c>
@@ -7438,14 +6883,10 @@
         <v>1</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H290" s="1"/>
-      <c r="J290" s="8"/>
-      <c r="L290" s="1"/>
-      <c r="N290" s="1"/>
-    </row>
-    <row r="291" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1160413</v>
       </c>
@@ -7462,14 +6903,10 @@
         <v>1</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H291" s="1"/>
-      <c r="J291" s="8"/>
-      <c r="L291" s="1"/>
-      <c r="N291" s="1"/>
-    </row>
-    <row r="292" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1160414</v>
       </c>
@@ -7486,14 +6923,10 @@
         <v>1</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H292" s="1"/>
-      <c r="J292" s="8"/>
-      <c r="L292" s="1"/>
-      <c r="N292" s="1"/>
-    </row>
-    <row r="293" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1160416</v>
       </c>
@@ -7510,14 +6943,10 @@
         <v>2</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H293" s="1"/>
-      <c r="J293" s="8"/>
-      <c r="L293" s="1"/>
-      <c r="N293" s="1"/>
-    </row>
-    <row r="294" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1160417</v>
       </c>
@@ -7534,14 +6963,10 @@
         <v>1</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H294" s="1"/>
-      <c r="J294" s="8"/>
-      <c r="L294" s="1"/>
-      <c r="N294" s="1"/>
-    </row>
-    <row r="295" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1160418</v>
       </c>
@@ -7558,14 +6983,10 @@
         <v>1</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H295" s="1"/>
-      <c r="J295" s="8"/>
-      <c r="L295" s="1"/>
-      <c r="N295" s="1"/>
-    </row>
-    <row r="296" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1160423</v>
       </c>
@@ -7582,14 +7003,10 @@
         <v>2</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H296" s="1"/>
-      <c r="J296" s="8"/>
-      <c r="L296" s="1"/>
-      <c r="N296" s="1"/>
-    </row>
-    <row r="297" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1160427</v>
       </c>
@@ -7606,14 +7023,10 @@
         <v>1</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H297" s="1"/>
-      <c r="J297" s="8"/>
-      <c r="L297" s="1"/>
-      <c r="N297" s="1"/>
-    </row>
-    <row r="298" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1160428</v>
       </c>
@@ -7630,14 +7043,10 @@
         <v>2</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H298" s="1"/>
-      <c r="J298" s="8"/>
-      <c r="L298" s="1"/>
-      <c r="N298" s="1"/>
-    </row>
-    <row r="299" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1160429</v>
       </c>
@@ -7654,14 +7063,10 @@
         <v>2</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H299" s="1"/>
-      <c r="J299" s="8"/>
-      <c r="L299" s="1"/>
-      <c r="N299" s="1"/>
-    </row>
-    <row r="300" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1160430</v>
       </c>
@@ -7678,14 +7083,10 @@
         <v>2</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H300" s="1"/>
-      <c r="J300" s="8"/>
-      <c r="L300" s="1"/>
-      <c r="N300" s="1"/>
-    </row>
-    <row r="301" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1160431</v>
       </c>
@@ -7702,14 +7103,10 @@
         <v>2</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H301" s="1"/>
-      <c r="J301" s="8"/>
-      <c r="L301" s="1"/>
-      <c r="N301" s="1"/>
-    </row>
-    <row r="302" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1160432</v>
       </c>
@@ -7726,14 +7123,10 @@
         <v>1</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H302" s="1"/>
-      <c r="J302" s="8"/>
-      <c r="L302" s="1"/>
-      <c r="N302" s="1"/>
-    </row>
-    <row r="303" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>1160434</v>
       </c>
@@ -7750,14 +7143,10 @@
         <v>2</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H303" s="1"/>
-      <c r="J303" s="8"/>
-      <c r="L303" s="1"/>
-      <c r="N303" s="1"/>
-    </row>
-    <row r="304" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1160451</v>
       </c>
@@ -7774,14 +7163,10 @@
         <v>1</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H304" s="1"/>
-      <c r="J304" s="8"/>
-      <c r="L304" s="1"/>
-      <c r="N304" s="1"/>
-    </row>
-    <row r="305" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1160466</v>
       </c>
@@ -7798,14 +7183,10 @@
         <v>2</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H305" s="1"/>
-      <c r="J305" s="8"/>
-      <c r="L305" s="1"/>
-      <c r="N305" s="1"/>
-    </row>
-    <row r="306" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>1160474</v>
       </c>
@@ -7822,14 +7203,10 @@
         <v>1</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H306" s="1"/>
-      <c r="J306" s="8"/>
-      <c r="L306" s="1"/>
-      <c r="N306" s="1"/>
-    </row>
-    <row r="307" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1160517</v>
       </c>
@@ -7846,14 +7223,10 @@
         <v>2</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H307" s="1"/>
-      <c r="J307" s="8"/>
-      <c r="L307" s="1"/>
-      <c r="N307" s="1"/>
-    </row>
-    <row r="308" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1160520</v>
       </c>
@@ -7870,14 +7243,10 @@
         <v>1</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H308" s="1"/>
-      <c r="J308" s="8"/>
-      <c r="L308" s="1"/>
-      <c r="N308" s="1"/>
-    </row>
-    <row r="309" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>1160532</v>
       </c>
@@ -7894,14 +7263,10 @@
         <v>1</v>
       </c>
       <c r="G309" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H309" s="1"/>
-      <c r="J309" s="8"/>
-      <c r="L309" s="1"/>
-      <c r="N309" s="1"/>
-    </row>
-    <row r="310" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1160558</v>
       </c>
@@ -7918,14 +7283,10 @@
         <v>2</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H310" s="1"/>
-      <c r="J310" s="8"/>
-      <c r="L310" s="1"/>
-      <c r="N310" s="1"/>
-    </row>
-    <row r="311" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>1160579</v>
       </c>
@@ -7942,14 +7303,10 @@
         <v>2</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H311" s="1"/>
-      <c r="J311" s="8"/>
-      <c r="L311" s="1"/>
-      <c r="N311" s="1"/>
-    </row>
-    <row r="312" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1160660</v>
       </c>
@@ -7966,14 +7323,10 @@
         <v>1</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H312" s="1"/>
-      <c r="J312" s="8"/>
-      <c r="L312" s="1"/>
-      <c r="N312" s="1"/>
-    </row>
-    <row r="313" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1160714</v>
       </c>
@@ -7990,14 +7343,10 @@
         <v>2</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H313" s="1"/>
-      <c r="J313" s="8"/>
-      <c r="L313" s="1"/>
-      <c r="N313" s="1"/>
-    </row>
-    <row r="314" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1160736</v>
       </c>
@@ -8014,14 +7363,10 @@
         <v>2</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H314" s="1"/>
-      <c r="J314" s="8"/>
-      <c r="L314" s="1"/>
-      <c r="N314" s="1"/>
-    </row>
-    <row r="315" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1160748</v>
       </c>
@@ -8038,14 +7383,10 @@
         <v>1</v>
       </c>
       <c r="G315" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H315" s="1"/>
-      <c r="J315" s="8"/>
-      <c r="L315" s="1"/>
-      <c r="N315" s="1"/>
-    </row>
-    <row r="316" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>1160808</v>
       </c>
@@ -8062,14 +7403,10 @@
         <v>2</v>
       </c>
       <c r="G316" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H316" s="1"/>
-      <c r="J316" s="8"/>
-      <c r="L316" s="1"/>
-      <c r="N316" s="1"/>
-    </row>
-    <row r="317" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>1160914</v>
       </c>
@@ -8086,14 +7423,10 @@
         <v>1</v>
       </c>
       <c r="G317" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H317" s="1"/>
-      <c r="J317" s="8"/>
-      <c r="L317" s="1"/>
-      <c r="N317" s="1"/>
-    </row>
-    <row r="318" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1161131</v>
       </c>
@@ -8110,14 +7443,10 @@
         <v>2</v>
       </c>
       <c r="G318" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H318" s="1"/>
-      <c r="J318" s="8"/>
-      <c r="L318" s="1"/>
-      <c r="N318" s="1"/>
-    </row>
-    <row r="319" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>1161139</v>
       </c>
@@ -8134,14 +7463,10 @@
         <v>1</v>
       </c>
       <c r="G319" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H319" s="1"/>
-      <c r="J319" s="8"/>
-      <c r="L319" s="1"/>
-      <c r="N319" s="1"/>
-    </row>
-    <row r="320" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>1161147</v>
       </c>
@@ -8158,14 +7483,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H320" s="1"/>
-      <c r="J320" s="8"/>
-      <c r="L320" s="1"/>
-      <c r="N320" s="1"/>
-    </row>
-    <row r="321" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>1161175</v>
       </c>
@@ -8182,14 +7503,10 @@
         <v>2</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H321" s="1"/>
-      <c r="J321" s="8"/>
-      <c r="L321" s="1"/>
-      <c r="N321" s="1"/>
-    </row>
-    <row r="322" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>1161184</v>
       </c>
@@ -8206,14 +7523,10 @@
         <v>2</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H322" s="1"/>
-      <c r="J322" s="8"/>
-      <c r="L322" s="1"/>
-      <c r="N322" s="1"/>
-    </row>
-    <row r="323" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>1161189</v>
       </c>
@@ -8230,14 +7543,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H323" s="1"/>
-      <c r="J323" s="8"/>
-      <c r="L323" s="1"/>
-      <c r="N323" s="1"/>
-    </row>
-    <row r="324" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>1166847</v>
       </c>
@@ -8254,14 +7563,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H324" s="1"/>
-      <c r="J324" s="8"/>
-      <c r="L324" s="1"/>
-      <c r="N324" s="1"/>
-    </row>
-    <row r="325" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1168377</v>
       </c>
@@ -8278,14 +7583,10 @@
         <v>2</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H325" s="1"/>
-      <c r="J325" s="8"/>
-      <c r="L325" s="1"/>
-      <c r="N325" s="1"/>
-    </row>
-    <row r="326" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>820024</v>
       </c>
@@ -8302,14 +7603,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H326" s="1"/>
-      <c r="J326" s="8"/>
-      <c r="L326" s="1"/>
-      <c r="N326" s="1"/>
-    </row>
-    <row r="327" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>820100</v>
       </c>
@@ -8326,14 +7623,10 @@
         <v>2</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H327" s="1"/>
-      <c r="J327" s="8"/>
-      <c r="L327" s="1"/>
-      <c r="N327" s="1"/>
-    </row>
-    <row r="328" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>820102</v>
       </c>
@@ -8350,14 +7643,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H328" s="1"/>
-      <c r="J328" s="8"/>
-      <c r="L328" s="1"/>
-      <c r="N328" s="1"/>
-    </row>
-    <row r="329" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>820130</v>
       </c>
@@ -8374,14 +7663,10 @@
         <v>1</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H329" s="1"/>
-      <c r="J329" s="8"/>
-      <c r="L329" s="1"/>
-      <c r="N329" s="1"/>
-    </row>
-    <row r="330" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>820149</v>
       </c>
@@ -8398,14 +7683,10 @@
         <v>2</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H330" s="1"/>
-      <c r="J330" s="8"/>
-      <c r="L330" s="1"/>
-      <c r="N330" s="1"/>
-    </row>
-    <row r="331" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>820180</v>
       </c>
@@ -8422,14 +7703,10 @@
         <v>1</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H331" s="1"/>
-      <c r="J331" s="8"/>
-      <c r="L331" s="1"/>
-      <c r="N331" s="1"/>
-    </row>
-    <row r="332" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>820195</v>
       </c>
@@ -8446,14 +7723,10 @@
         <v>2</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H332" s="1"/>
-      <c r="J332" s="8"/>
-      <c r="L332" s="1"/>
-      <c r="N332" s="1"/>
-    </row>
-    <row r="333" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>820217</v>
       </c>
@@ -8470,14 +7743,10 @@
         <v>1</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H333" s="1"/>
-      <c r="J333" s="8"/>
-      <c r="L333" s="1"/>
-      <c r="N333" s="1"/>
-    </row>
-    <row r="334" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>820231</v>
       </c>
@@ -8494,14 +7763,10 @@
         <v>2</v>
       </c>
       <c r="G334" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H334" s="1"/>
-      <c r="J334" s="8"/>
-      <c r="L334" s="1"/>
-      <c r="N334" s="1"/>
-    </row>
-    <row r="335" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>820242</v>
       </c>
@@ -8518,14 +7783,10 @@
         <v>2</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H335" s="1"/>
-      <c r="J335" s="8"/>
-      <c r="L335" s="1"/>
-      <c r="N335" s="1"/>
-    </row>
-    <row r="336" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>820264</v>
       </c>
@@ -8542,14 +7803,10 @@
         <v>2</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H336" s="1"/>
-      <c r="J336" s="8"/>
-      <c r="L336" s="1"/>
-      <c r="N336" s="1"/>
-    </row>
-    <row r="337" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>820265</v>
       </c>
@@ -8566,14 +7823,10 @@
         <v>1</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H337" s="1"/>
-      <c r="J337" s="8"/>
-      <c r="L337" s="1"/>
-      <c r="N337" s="1"/>
-    </row>
-    <row r="338" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>820275</v>
       </c>
@@ -8590,14 +7843,10 @@
         <v>2</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H338" s="1"/>
-      <c r="J338" s="8"/>
-      <c r="L338" s="1"/>
-      <c r="N338" s="1"/>
-    </row>
-    <row r="339" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>820293</v>
       </c>
@@ -8614,14 +7863,10 @@
         <v>1</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H339" s="1"/>
-      <c r="J339" s="8"/>
-      <c r="L339" s="1"/>
-      <c r="N339" s="1"/>
-    </row>
-    <row r="340" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>820347</v>
       </c>
@@ -8638,14 +7883,10 @@
         <v>2</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H340" s="1"/>
-      <c r="J340" s="8"/>
-      <c r="L340" s="1"/>
-      <c r="N340" s="1"/>
-    </row>
-    <row r="341" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>820387</v>
       </c>
@@ -8662,14 +7903,10 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H341" s="1"/>
-      <c r="J341" s="8"/>
-      <c r="L341" s="1"/>
-      <c r="N341" s="1"/>
-    </row>
-    <row r="342" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>820408</v>
       </c>
@@ -8686,14 +7923,10 @@
         <v>2</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H342" s="1"/>
-      <c r="J342" s="8"/>
-      <c r="L342" s="1"/>
-      <c r="N342" s="1"/>
-    </row>
-    <row r="343" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>820428</v>
       </c>
@@ -8710,14 +7943,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H343" s="1"/>
-      <c r="J343" s="8"/>
-      <c r="L343" s="1"/>
-      <c r="N343" s="1"/>
-    </row>
-    <row r="344" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>820438</v>
       </c>
@@ -8734,14 +7963,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H344" s="1"/>
-      <c r="J344" s="8"/>
-      <c r="L344" s="1"/>
-      <c r="N344" s="1"/>
-    </row>
-    <row r="345" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>820460</v>
       </c>
@@ -8758,14 +7983,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H345" s="1"/>
-      <c r="J345" s="8"/>
-      <c r="L345" s="1"/>
-      <c r="N345" s="1"/>
-    </row>
-    <row r="346" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>820480</v>
       </c>
@@ -8782,14 +8003,10 @@
         <v>2</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H346" s="1"/>
-      <c r="J346" s="8"/>
-      <c r="L346" s="1"/>
-      <c r="N346" s="1"/>
-    </row>
-    <row r="347" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>820500</v>
       </c>
@@ -8806,14 +8023,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H347" s="1"/>
-      <c r="J347" s="8"/>
-      <c r="L347" s="1"/>
-      <c r="N347" s="1"/>
-    </row>
-    <row r="348" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>820520</v>
       </c>
@@ -8830,14 +8043,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H348" s="1"/>
-      <c r="J348" s="8"/>
-      <c r="L348" s="1"/>
-      <c r="N348" s="1"/>
-    </row>
-    <row r="349" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>820532</v>
       </c>
@@ -8854,14 +8063,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H349" s="1"/>
-      <c r="J349" s="8"/>
-      <c r="L349" s="1"/>
-      <c r="N349" s="1"/>
-    </row>
-    <row r="350" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>820550</v>
       </c>
@@ -8878,14 +8083,10 @@
         <v>2</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H350" s="1"/>
-      <c r="J350" s="8"/>
-      <c r="L350" s="1"/>
-      <c r="N350" s="1"/>
-    </row>
-    <row r="351" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>820581</v>
       </c>
@@ -8902,14 +8103,10 @@
         <v>2</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H351" s="1"/>
-      <c r="J351" s="8"/>
-      <c r="L351" s="1"/>
-      <c r="N351" s="1"/>
-    </row>
-    <row r="352" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>820606</v>
       </c>
@@ -8926,14 +8123,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H352" s="1"/>
-      <c r="J352" s="8"/>
-      <c r="L352" s="1"/>
-      <c r="N352" s="1"/>
-    </row>
-    <row r="353" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>820610</v>
       </c>
@@ -8950,14 +8143,10 @@
         <v>1</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H353" s="1"/>
-      <c r="J353" s="8"/>
-      <c r="L353" s="1"/>
-      <c r="N353" s="1"/>
-    </row>
-    <row r="354" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>820628</v>
       </c>
@@ -8974,14 +8163,10 @@
         <v>2</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H354" s="1"/>
-      <c r="J354" s="8"/>
-      <c r="L354" s="1"/>
-      <c r="N354" s="1"/>
-    </row>
-    <row r="355" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>820652</v>
       </c>
@@ -8998,14 +8183,10 @@
         <v>2</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H355" s="1"/>
-      <c r="J355" s="8"/>
-      <c r="L355" s="1"/>
-      <c r="N355" s="1"/>
-    </row>
-    <row r="356" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>820675</v>
       </c>
@@ -9022,14 +8203,10 @@
         <v>1</v>
       </c>
       <c r="G356" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H356" s="1"/>
-      <c r="J356" s="8"/>
-      <c r="L356" s="1"/>
-      <c r="N356" s="1"/>
-    </row>
-    <row r="357" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>820689</v>
       </c>
@@ -9046,14 +8223,10 @@
         <v>1</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H357" s="1"/>
-      <c r="J357" s="8"/>
-      <c r="L357" s="1"/>
-      <c r="N357" s="1"/>
-    </row>
-    <row r="358" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>820708</v>
       </c>
@@ -9070,14 +8243,10 @@
         <v>2</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H358" s="1"/>
-      <c r="J358" s="8"/>
-      <c r="L358" s="1"/>
-      <c r="N358" s="1"/>
-    </row>
-    <row r="359" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>820745</v>
       </c>
@@ -9094,14 +8263,10 @@
         <v>2</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H359" s="1"/>
-      <c r="J359" s="8"/>
-      <c r="L359" s="1"/>
-      <c r="N359" s="1"/>
-    </row>
-    <row r="360" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>820746</v>
       </c>
@@ -9118,14 +8283,10 @@
         <v>1</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H360" s="1"/>
-      <c r="J360" s="8"/>
-      <c r="L360" s="1"/>
-      <c r="N360" s="1"/>
-    </row>
-    <row r="361" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>820774</v>
       </c>
@@ -9142,14 +8303,10 @@
         <v>1</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H361" s="1"/>
-      <c r="J361" s="8"/>
-      <c r="L361" s="1"/>
-      <c r="N361" s="1"/>
-    </row>
-    <row r="362" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>820788</v>
       </c>
@@ -9166,14 +8323,10 @@
         <v>2</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H362" s="1"/>
-      <c r="J362" s="8"/>
-      <c r="L362" s="1"/>
-      <c r="N362" s="1"/>
-    </row>
-    <row r="363" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>820824</v>
       </c>
@@ -9190,14 +8343,10 @@
         <v>2</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H363" s="1"/>
-      <c r="J363" s="8"/>
-      <c r="L363" s="1"/>
-      <c r="N363" s="1"/>
-    </row>
-    <row r="364" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>820825</v>
       </c>
@@ -9214,14 +8363,10 @@
         <v>1</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H364" s="1"/>
-      <c r="J364" s="8"/>
-      <c r="L364" s="1"/>
-      <c r="N364" s="1"/>
-    </row>
-    <row r="365" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>820856</v>
       </c>
@@ -9238,14 +8383,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H365" s="1"/>
-      <c r="J365" s="8"/>
-      <c r="L365" s="1"/>
-      <c r="N365" s="1"/>
-    </row>
-    <row r="366" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>820870</v>
       </c>
@@ -9262,14 +8403,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H366" s="1"/>
-      <c r="J366" s="8"/>
-      <c r="L366" s="1"/>
-      <c r="N366" s="1"/>
-    </row>
-    <row r="367" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>820880</v>
       </c>
@@ -9286,14 +8423,10 @@
         <v>2</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H367" s="1"/>
-      <c r="J367" s="8"/>
-      <c r="L367" s="1"/>
-      <c r="N367" s="1"/>
-    </row>
-    <row r="368" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>820897</v>
       </c>
@@ -9310,14 +8443,10 @@
         <v>2</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H368" s="1"/>
-      <c r="J368" s="8"/>
-      <c r="L368" s="1"/>
-      <c r="N368" s="1"/>
-    </row>
-    <row r="369" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>820930</v>
       </c>
@@ -9334,14 +8463,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H369" s="1"/>
-      <c r="J369" s="8"/>
-      <c r="L369" s="1"/>
-      <c r="N369" s="1"/>
-    </row>
-    <row r="370" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>820957</v>
       </c>
@@ -9358,14 +8483,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H370" s="1"/>
-      <c r="J370" s="8"/>
-      <c r="L370" s="1"/>
-      <c r="N370" s="1"/>
-    </row>
-    <row r="371" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>820979</v>
       </c>
@@ -9382,14 +8503,10 @@
         <v>2</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H371" s="1"/>
-      <c r="J371" s="8"/>
-      <c r="L371" s="1"/>
-      <c r="N371" s="1"/>
-    </row>
-    <row r="372" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>821003</v>
       </c>
@@ -9406,14 +8523,10 @@
         <v>2</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H372" s="1"/>
-      <c r="J372" s="8"/>
-      <c r="L372" s="1"/>
-      <c r="N372" s="1"/>
-    </row>
-    <row r="373" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>821005</v>
       </c>
@@ -9430,14 +8543,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H373" s="1"/>
-      <c r="J373" s="8"/>
-      <c r="L373" s="1"/>
-      <c r="N373" s="1"/>
-    </row>
-    <row r="374" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>821032</v>
       </c>
@@ -9454,14 +8563,10 @@
         <v>1</v>
       </c>
       <c r="G374" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H374" s="1"/>
-      <c r="J374" s="8"/>
-      <c r="L374" s="1"/>
-      <c r="N374" s="1"/>
-    </row>
-    <row r="375" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>821038</v>
       </c>
@@ -9478,14 +8583,10 @@
         <v>2</v>
       </c>
       <c r="G375" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H375" s="1"/>
-      <c r="J375" s="8"/>
-      <c r="L375" s="1"/>
-      <c r="N375" s="1"/>
-    </row>
-    <row r="376" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>821052</v>
       </c>
@@ -9502,14 +8603,10 @@
         <v>2</v>
       </c>
       <c r="G376" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H376" s="1"/>
-      <c r="J376" s="8"/>
-      <c r="L376" s="1"/>
-      <c r="N376" s="1"/>
-    </row>
-    <row r="377" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>821076</v>
       </c>
@@ -9526,14 +8623,10 @@
         <v>2</v>
       </c>
       <c r="G377" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H377" s="1"/>
-      <c r="J377" s="8"/>
-      <c r="L377" s="1"/>
-      <c r="N377" s="1"/>
-    </row>
-    <row r="378" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>821077</v>
       </c>
@@ -9550,14 +8643,10 @@
         <v>1</v>
       </c>
       <c r="G378" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H378" s="1"/>
-      <c r="J378" s="8"/>
-      <c r="L378" s="1"/>
-      <c r="N378" s="1"/>
-    </row>
-    <row r="379" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>821121</v>
       </c>
@@ -9574,14 +8663,10 @@
         <v>2</v>
       </c>
       <c r="G379" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H379" s="1"/>
-      <c r="J379" s="8"/>
-      <c r="L379" s="1"/>
-      <c r="N379" s="1"/>
-    </row>
-    <row r="380" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>821150</v>
       </c>
@@ -9598,14 +8683,10 @@
         <v>2</v>
       </c>
       <c r="G380" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H380" s="1"/>
-      <c r="J380" s="8"/>
-      <c r="L380" s="1"/>
-      <c r="N380" s="1"/>
-    </row>
-    <row r="381" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>821162</v>
       </c>
@@ -9622,14 +8703,10 @@
         <v>2</v>
       </c>
       <c r="G381" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H381" s="1"/>
-      <c r="J381" s="8"/>
-      <c r="L381" s="1"/>
-      <c r="N381" s="1"/>
-    </row>
-    <row r="382" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>821181</v>
       </c>
@@ -9646,14 +8723,10 @@
         <v>1</v>
       </c>
       <c r="G382" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H382" s="1"/>
-      <c r="J382" s="8"/>
-      <c r="L382" s="1"/>
-      <c r="N382" s="1"/>
-    </row>
-    <row r="383" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>821221</v>
       </c>
@@ -9670,14 +8743,10 @@
         <v>2</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H383" s="1"/>
-      <c r="J383" s="8"/>
-      <c r="L383" s="1"/>
-      <c r="N383" s="1"/>
-    </row>
-    <row r="384" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>821243</v>
       </c>
@@ -9694,14 +8763,10 @@
         <v>2</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H384" s="1"/>
-      <c r="J384" s="8"/>
-      <c r="L384" s="1"/>
-      <c r="N384" s="1"/>
-    </row>
-    <row r="385" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>821263</v>
       </c>
@@ -9718,14 +8783,10 @@
         <v>2</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H385" s="1"/>
-      <c r="J385" s="8"/>
-      <c r="L385" s="1"/>
-      <c r="N385" s="1"/>
-    </row>
-    <row r="386" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>821289</v>
       </c>
@@ -9742,14 +8803,10 @@
         <v>1</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H386" s="1"/>
-      <c r="J386" s="8"/>
-      <c r="L386" s="1"/>
-      <c r="N386" s="1"/>
-    </row>
-    <row r="387" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>821297</v>
       </c>
@@ -9766,14 +8823,10 @@
         <v>2</v>
       </c>
       <c r="G387" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H387" s="1"/>
-      <c r="J387" s="8"/>
-      <c r="L387" s="1"/>
-      <c r="N387" s="1"/>
-    </row>
-    <row r="388" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>821334</v>
       </c>
@@ -9790,14 +8843,10 @@
         <v>1</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H388" s="1"/>
-      <c r="J388" s="8"/>
-      <c r="L388" s="1"/>
-      <c r="N388" s="1"/>
-    </row>
-    <row r="389" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>821360</v>
       </c>
@@ -9814,14 +8863,10 @@
         <v>1</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H389" s="1"/>
-      <c r="J389" s="8"/>
-      <c r="L389" s="1"/>
-      <c r="N389" s="1"/>
-    </row>
-    <row r="390" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>821386</v>
       </c>
@@ -9838,14 +8883,10 @@
         <v>2</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H390" s="1"/>
-      <c r="J390" s="8"/>
-      <c r="L390" s="1"/>
-      <c r="N390" s="1"/>
-    </row>
-    <row r="391" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>821390</v>
       </c>
@@ -9862,14 +8903,10 @@
         <v>1</v>
       </c>
       <c r="G391" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H391" s="1"/>
-      <c r="J391" s="8"/>
-      <c r="L391" s="1"/>
-      <c r="N391" s="1"/>
-    </row>
-    <row r="392" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>821481</v>
       </c>
@@ -9886,14 +8923,10 @@
         <v>2</v>
       </c>
       <c r="G392" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H392" s="1"/>
-      <c r="J392" s="8"/>
-      <c r="L392" s="1"/>
-      <c r="N392" s="1"/>
-    </row>
-    <row r="393" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>821495</v>
       </c>
@@ -9910,14 +8943,10 @@
         <v>1</v>
       </c>
       <c r="G393" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H393" s="1"/>
-      <c r="J393" s="8"/>
-      <c r="L393" s="1"/>
-      <c r="N393" s="1"/>
-    </row>
-    <row r="394" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>821573</v>
       </c>
@@ -9934,14 +8963,10 @@
         <v>2</v>
       </c>
       <c r="G394" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H394" s="1"/>
-      <c r="J394" s="8"/>
-      <c r="L394" s="1"/>
-      <c r="N394" s="1"/>
-    </row>
-    <row r="395" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>821607</v>
       </c>
@@ -9958,14 +8983,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H395" s="1"/>
-      <c r="J395" s="8"/>
-      <c r="L395" s="1"/>
-      <c r="N395" s="1"/>
-    </row>
-    <row r="396" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>821647</v>
       </c>
@@ -9982,14 +9003,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H396" s="1"/>
-      <c r="J396" s="8"/>
-      <c r="L396" s="1"/>
-      <c r="N396" s="1"/>
-    </row>
-    <row r="397" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>821734</v>
       </c>
@@ -10006,14 +9023,10 @@
         <v>2</v>
       </c>
       <c r="G397" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H397" s="1"/>
-      <c r="J397" s="8"/>
-      <c r="L397" s="1"/>
-      <c r="N397" s="1"/>
-    </row>
-    <row r="398" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>821912</v>
       </c>
@@ -10030,14 +9043,10 @@
         <v>2</v>
       </c>
       <c r="G398" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H398" s="1"/>
-      <c r="J398" s="8"/>
-      <c r="L398" s="1"/>
-      <c r="N398" s="1"/>
-    </row>
-    <row r="399" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>821948</v>
       </c>
@@ -10054,14 +9063,10 @@
         <v>2</v>
       </c>
       <c r="G399" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H399" s="1"/>
-      <c r="J399" s="8"/>
-      <c r="L399" s="1"/>
-      <c r="N399" s="1"/>
-    </row>
-    <row r="400" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>821959</v>
       </c>
@@ -10078,14 +9083,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H400" s="1"/>
-      <c r="J400" s="8"/>
-      <c r="L400" s="1"/>
-      <c r="N400" s="1"/>
-    </row>
-    <row r="401" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>822025</v>
       </c>
@@ -10102,14 +9103,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H401" s="1"/>
-      <c r="J401" s="8"/>
-      <c r="L401" s="1"/>
-      <c r="N401" s="1"/>
-    </row>
-    <row r="402" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>823792</v>
       </c>
@@ -10126,14 +9123,10 @@
         <v>2</v>
       </c>
       <c r="G402" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H402" s="1"/>
-      <c r="J402" s="8"/>
-      <c r="L402" s="1"/>
-      <c r="N402" s="1"/>
-    </row>
-    <row r="403" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>823818</v>
       </c>
@@ -10150,14 +9143,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H403" s="1"/>
-      <c r="J403" s="8"/>
-      <c r="L403" s="1"/>
-      <c r="N403" s="1"/>
-    </row>
-    <row r="404" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>823857</v>
       </c>
@@ -10174,14 +9163,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H404" s="1"/>
-      <c r="J404" s="8"/>
-      <c r="L404" s="1"/>
-      <c r="N404" s="1"/>
-    </row>
-    <row r="405" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>823900</v>
       </c>
@@ -10198,14 +9183,10 @@
         <v>2</v>
       </c>
       <c r="G405" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H405" s="1"/>
-      <c r="J405" s="8"/>
-      <c r="L405" s="1"/>
-      <c r="N405" s="1"/>
-    </row>
-    <row r="406" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>823916</v>
       </c>
@@ -10222,14 +9203,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H406" s="1"/>
-      <c r="J406" s="8"/>
-      <c r="L406" s="1"/>
-      <c r="N406" s="1"/>
-    </row>
-    <row r="407" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>823942</v>
       </c>
@@ -10246,12 +9223,8 @@
         <v>2</v>
       </c>
       <c r="G407" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H407" s="1"/>
-      <c r="J407" s="8"/>
-      <c r="L407" s="1"/>
-      <c r="N407" s="1"/>
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
